--- a/Collections/EURO/Italy/#EURO#Italy#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Italy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -163,7 +163,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -289,7 +289,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -305,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="114">
   <si>
     <t>Year</t>
   </si>
@@ -388,9 +388,6 @@
     <t>Subtype_2</t>
   </si>
   <si>
-    <t>Copper plated Steel</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -409,9 +406,6 @@
     <t>Rev: new map of Europe</t>
   </si>
   <si>
-    <t>Brass</t>
-  </si>
-  <si>
     <t>20cents</t>
   </si>
   <si>
@@ -421,9 +415,6 @@
     <t>1€</t>
   </si>
   <si>
-    <t>Bi-Metallic</t>
-  </si>
-  <si>
     <t>2€</t>
   </si>
   <si>
@@ -688,7 +679,37 @@
     <t>Obv: Double border</t>
   </si>
   <si>
-    <t>Missing artist signature</t>
+    <t>Obv: Missing artist signature</t>
+  </si>
+  <si>
+    <t>Obv: With mint symbol - "R"</t>
+  </si>
+  <si>
+    <t>Subtype_3</t>
+  </si>
+  <si>
+    <t>Obv: Castel del Monte</t>
+  </si>
+  <si>
+    <t>Obv: Mole Antonelliana</t>
+  </si>
+  <si>
+    <t>Obv: Colosseum</t>
+  </si>
+  <si>
+    <t>Obv: The Birth of Venus</t>
+  </si>
+  <si>
+    <t>Obv: Sculpture Unique Forms of Continuity in Space</t>
+  </si>
+  <si>
+    <t>Obv: Equestrian Statue of Marcus Aurelius</t>
+  </si>
+  <si>
+    <t>Obv: Vitruvian Man</t>
+  </si>
+  <si>
+    <t>Obv: Dante Alighieri</t>
   </si>
 </sst>
 </file>
@@ -777,7 +798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -855,13 +876,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -934,133 +979,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1189,9 +1120,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="28"/>
-    <tableColumn id="2" name="Link" dataDxfId="27" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="26"/>
+    <tableColumn id="1" name="№" dataDxfId="13"/>
+    <tableColumn id="2" name="Link" dataDxfId="12" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1462,11 +1393,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F20"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1495,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -1509,10 +1440,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1521,12 +1452,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1542,12 +1475,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1563,12 +1498,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1583,12 +1520,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1603,12 +1542,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1623,12 +1564,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1643,12 +1586,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1663,12 +1608,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" s="12"/>
       <c r="E10" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1683,12 +1630,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1703,12 +1652,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1723,12 +1674,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1743,12 +1696,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D14" s="12"/>
       <c r="E14" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1763,12 +1718,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D15" s="12"/>
       <c r="E15" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1783,12 +1740,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D16" s="12"/>
       <c r="E16" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1803,12 +1762,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1823,12 +1784,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D18" s="12"/>
       <c r="E18" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1843,9 +1806,11 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
       <c r="F19" s="1">
@@ -1861,9 +1826,11 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D20" s="12"/>
       <c r="E20" s="13"/>
       <c r="F20" s="1">
@@ -1881,7 +1848,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1911,7 +1878,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F20"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1940,7 +1907,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -1954,10 +1921,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1966,12 +1933,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D3" s="6"/>
       <c r="E3" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1987,12 +1956,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2008,12 +1979,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D5" s="6"/>
       <c r="E5" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2028,12 +2001,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -2048,12 +2023,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2068,12 +2045,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2088,12 +2067,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2108,12 +2089,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2128,12 +2111,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2148,12 +2133,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2168,12 +2155,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2188,12 +2177,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2208,12 +2199,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2228,12 +2221,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2248,12 +2243,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2268,12 +2265,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2288,9 +2287,11 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="13"/>
       <c r="F19" s="1">
@@ -2306,9 +2307,11 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
       <c r="F20" s="1">
@@ -2326,7 +2329,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2356,7 +2359,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F20"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2385,7 +2388,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -2399,10 +2402,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2411,12 +2414,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D3" s="6"/>
       <c r="E3" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2432,12 +2437,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2453,12 +2460,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D5" s="6"/>
       <c r="E5" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2473,12 +2482,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2493,12 +2504,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2513,12 +2526,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2533,12 +2548,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2553,12 +2570,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2573,12 +2592,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2593,12 +2614,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2613,12 +2636,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2633,12 +2658,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2653,12 +2680,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2673,12 +2702,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2693,12 +2724,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2713,12 +2746,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -2733,9 +2768,11 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="13"/>
       <c r="F19" s="1">
@@ -2751,9 +2788,11 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
       <c r="F20" s="1">
@@ -2771,7 +2810,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2795,13 +2834,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2809,13 +2848,13 @@
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -2825,16 +2864,17 @@
       <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="7" t="s">
@@ -2843,454 +2883,517 @@
       <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="1">
+        <v>109</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G22" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="3" t="str">
+        <f t="shared" ref="H3:H22" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2002</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
+        <v>109</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" ref="G4" si="1">IF(OR(AND(F4&gt;1,F4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f t="shared" ref="H4" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2002</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>109</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" ref="G5" si="2">IF(OR(AND(F5&gt;1,F5&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f t="shared" ref="H5" si="2">IF(OR(AND(G5&gt;1,G5&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2003</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2004</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2005</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2006</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="1">
+        <v>109</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2007</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2008</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2009</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="1">
+        <v>109</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2010</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2011</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2012</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2013</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2014</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2015</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2016</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2017</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2018</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>2019</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="str">
+        <v>109</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3299,14 +3402,14 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F6:F22">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+  <conditionalFormatting sqref="G3 G6:G22">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F22 F3">
+  <conditionalFormatting sqref="G6:G22 G3">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3318,12 +3421,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="G4">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3335,12 +3438,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="G5">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3366,14 +3469,13 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F20"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="36.7265625" style="4" customWidth="1"/>
     <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
@@ -3395,7 +3497,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -3409,10 +3511,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3420,15 +3522,17 @@
       <c r="A3" s="10">
         <v>2002</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6"/>
+      <c r="B3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -3443,15 +3547,17 @@
       <c r="A4" s="10">
         <v>2003</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6"/>
+      <c r="B4" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -3466,15 +3572,17 @@
       <c r="A5" s="10">
         <v>2004</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="B5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3488,15 +3596,17 @@
       <c r="A6" s="10">
         <v>2005</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="B6" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3510,15 +3620,17 @@
       <c r="A7" s="10">
         <v>2006</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="B7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3532,15 +3644,17 @@
       <c r="A8" s="10">
         <v>2007</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="B8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3554,15 +3668,17 @@
       <c r="A9" s="10">
         <v>2008</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="B9" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3576,15 +3692,17 @@
       <c r="A10" s="10">
         <v>2009</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="B10" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E10" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -3598,15 +3716,17 @@
       <c r="A11" s="10">
         <v>2010</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6"/>
+      <c r="B11" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3620,15 +3740,17 @@
       <c r="A12" s="10">
         <v>2011</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6"/>
+      <c r="B12" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E12" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3642,15 +3764,17 @@
       <c r="A13" s="10">
         <v>2012</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6"/>
+      <c r="B13" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E13" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3664,15 +3788,17 @@
       <c r="A14" s="10">
         <v>2013</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6"/>
+      <c r="B14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E14" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3686,15 +3812,17 @@
       <c r="A15" s="10">
         <v>2014</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="6"/>
+      <c r="B15" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E15" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3708,15 +3836,17 @@
       <c r="A16" s="10">
         <v>2015</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="6"/>
+      <c r="B16" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E16" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3730,15 +3860,17 @@
       <c r="A17" s="10">
         <v>2016</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="6"/>
+      <c r="B17" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E17" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3752,15 +3884,17 @@
       <c r="A18" s="10">
         <v>2017</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="6"/>
+      <c r="B18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E18" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3774,13 +3908,15 @@
       <c r="A19" s="10">
         <v>2018</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="6"/>
+      <c r="B19" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E19" s="13"/>
       <c r="F19" s="1">
         <v>0</v>
@@ -3794,13 +3930,15 @@
       <c r="A20" s="10">
         <v>2019</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="6"/>
+      <c r="B20" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E20" s="13"/>
       <c r="F20" s="1">
         <v>0</v>
@@ -3817,7 +3955,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3847,7 +3985,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3876,7 +4014,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -3890,10 +4028,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -3901,15 +4039,17 @@
       <c r="A3" s="10">
         <v>2002</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6"/>
+      <c r="B3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1">
         <v>4</v>
@@ -3924,15 +4064,17 @@
       <c r="A4" s="10">
         <v>2003</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6"/>
+      <c r="B4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -3947,15 +4089,17 @@
       <c r="A5" s="10">
         <v>2004</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="B5" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3969,15 +4113,17 @@
       <c r="A6" s="10">
         <v>2005</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="B6" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3991,15 +4137,17 @@
       <c r="A7" s="10">
         <v>2006</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="B7" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4013,15 +4161,17 @@
       <c r="A8" s="10">
         <v>2007</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="B8" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -4035,15 +4185,17 @@
       <c r="A9" s="10">
         <v>2008</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="B9" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4057,15 +4209,17 @@
       <c r="A10" s="10">
         <v>2009</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="B10" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E10" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -4079,15 +4233,17 @@
       <c r="A11" s="10">
         <v>2010</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6"/>
+      <c r="B11" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4101,15 +4257,17 @@
       <c r="A12" s="10">
         <v>2011</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6"/>
+      <c r="B12" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E12" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -4123,15 +4281,17 @@
       <c r="A13" s="10">
         <v>2012</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6"/>
+      <c r="B13" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E13" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -4145,15 +4305,17 @@
       <c r="A14" s="10">
         <v>2013</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6"/>
+      <c r="B14" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E14" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4167,15 +4329,17 @@
       <c r="A15" s="10">
         <v>2014</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="6"/>
+      <c r="B15" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E15" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4189,15 +4353,17 @@
       <c r="A16" s="10">
         <v>2015</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="6"/>
+      <c r="B16" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E16" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4211,15 +4377,17 @@
       <c r="A17" s="10">
         <v>2016</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="6"/>
+      <c r="B17" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E17" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4233,15 +4401,17 @@
       <c r="A18" s="10">
         <v>2017</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="6"/>
+      <c r="B18" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E18" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4255,13 +4425,15 @@
       <c r="A19" s="10">
         <v>2018</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="6"/>
+      <c r="B19" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E19" s="13"/>
       <c r="F19" s="1">
         <v>0</v>
@@ -4275,13 +4447,15 @@
       <c r="A20" s="10">
         <v>2019</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="6"/>
+      <c r="B20" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E20" s="13"/>
       <c r="F20" s="1">
         <v>0</v>
@@ -4298,7 +4472,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4322,27 +4496,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="36.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -4352,16 +4526,17 @@
       <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="7" t="s">
@@ -4370,428 +4545,490 @@
       <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="1">
+        <v>112</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="H3" s="3" t="str">
+        <f t="shared" ref="H3:H21" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2002</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" ref="G4" si="1">IF(OR(AND(F4&gt;1,F4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f t="shared" ref="H4" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2003</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2004</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2005</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2006</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="1">
+        <v>112</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2007</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2008</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="1">
+        <v>112</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2009</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="1">
+        <v>112</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2010</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2011</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2012</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2013</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2014</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2015</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2016</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2017</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2018</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="str">
+        <v>112</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4800,14 +5037,14 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F5:F21">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+  <conditionalFormatting sqref="G3 G5:G21">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F21 F3">
+  <conditionalFormatting sqref="G5:G21 G3">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4819,12 +5056,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="G4">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4850,7 +5087,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4879,7 +5116,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -4893,10 +5130,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4905,14 +5142,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -4928,14 +5167,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4952,14 +5193,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4974,14 +5217,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4996,14 +5241,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -5018,14 +5265,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -5040,14 +5289,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -5062,14 +5313,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E10" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -5084,14 +5337,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -5106,14 +5361,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E12" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -5128,14 +5385,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E13" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -5150,14 +5409,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E14" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -5172,14 +5433,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E15" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -5194,14 +5457,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E16" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -5216,14 +5481,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E17" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -5238,14 +5505,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E18" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -5260,12 +5529,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E19" s="13"/>
       <c r="F19" s="1">
         <v>0</v>
@@ -5280,12 +5551,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E20" s="13"/>
       <c r="F20" s="1">
         <v>0</v>
@@ -5302,7 +5575,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5344,13 +5617,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5358,10 +5631,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5369,10 +5642,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5380,10 +5653,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5391,10 +5664,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5402,10 +5675,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5413,10 +5686,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Italy/#EURO#Italy#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Italy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741C0753-7838-4F9E-B6BC-F6ED98D8F592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,12 +75,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -116,12 +117,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -158,12 +159,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -200,12 +201,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -221,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -242,12 +243,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -263,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -284,12 +285,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -326,12 +327,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -368,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="127">
   <si>
     <t>Year</t>
   </si>
@@ -710,13 +711,52 @@
   </si>
   <si>
     <t>Obv: Dante Alighieri</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>42.000</t>
+  </si>
+  <si>
+    <t>23.000</t>
+  </si>
+  <si>
+    <t>24.000</t>
+  </si>
+  <si>
+    <t>170.000.000</t>
+  </si>
+  <si>
+    <t>50.000.000</t>
+  </si>
+  <si>
+    <t>110.000.000</t>
+  </si>
+  <si>
+    <t>45.000.000</t>
+  </si>
+  <si>
+    <t>51.000.000</t>
+  </si>
+  <si>
+    <t>20.000.000</t>
+  </si>
+  <si>
+    <t>1.000.000</t>
+  </si>
+  <si>
+    <t>24.000.000</t>
+  </si>
+  <si>
+    <t>12.000.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -765,8 +805,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -794,6 +842,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3B285"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,7 +960,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -967,6 +1021,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -979,19 +1036,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1089,6 +1162,94 @@
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1113,16 +1274,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="13"/>
-    <tableColumn id="2" name="Link" dataDxfId="12" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="14" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1390,38 +1551,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="A19:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
@@ -1430,9 +1591,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1447,14 +1608,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D3" s="12"/>
@@ -1470,14 +1631,14 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D4" s="12"/>
@@ -1493,14 +1654,14 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D5" s="12"/>
@@ -1515,14 +1676,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="12"/>
@@ -1537,14 +1698,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D7" s="12"/>
@@ -1559,14 +1720,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D8" s="12"/>
@@ -1581,14 +1742,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="12"/>
@@ -1603,14 +1764,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D10" s="12"/>
@@ -1625,14 +1786,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D11" s="12"/>
@@ -1647,14 +1808,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D12" s="12"/>
@@ -1669,14 +1830,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D13" s="12"/>
@@ -1691,14 +1852,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D14" s="12"/>
@@ -1713,14 +1874,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="12"/>
@@ -1735,14 +1896,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D16" s="12"/>
@@ -1757,14 +1918,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D17" s="12"/>
@@ -1779,14 +1940,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D18" s="12"/>
@@ -1801,43 +1962,69 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="1">
-        <v>0</v>
+      <c r="E19" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="1">
-        <v>0</v>
+      <c r="E20" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1847,12 +2034,57 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F18">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F3:F18">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1871,38 +2103,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B20"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
@@ -1911,9 +2143,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1928,14 +2160,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D3" s="6"/>
@@ -1946,19 +2178,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D4" s="6"/>
@@ -1974,14 +2206,14 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D5" s="6"/>
@@ -1996,14 +2228,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="6"/>
@@ -2018,14 +2250,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D7" s="6"/>
@@ -2040,14 +2272,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D8" s="6"/>
@@ -2062,14 +2294,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="6"/>
@@ -2084,14 +2316,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D10" s="6"/>
@@ -2106,14 +2338,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D11" s="6"/>
@@ -2128,14 +2360,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D12" s="6"/>
@@ -2150,14 +2382,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D13" s="6"/>
@@ -2172,14 +2404,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D14" s="6"/>
@@ -2194,14 +2426,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="6"/>
@@ -2216,14 +2448,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D16" s="6"/>
@@ -2238,14 +2470,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D17" s="6"/>
@@ -2260,14 +2492,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D18" s="6"/>
@@ -2282,42 +2514,68 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="1">
-        <v>0</v>
+      <c r="C19" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="1">
-        <v>0</v>
+      <c r="C20" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2328,12 +2586,57 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F18">
+    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F3:F18">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2352,38 +2655,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B20"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
@@ -2392,9 +2695,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2409,14 +2712,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D3" s="6"/>
@@ -2432,14 +2735,14 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D4" s="6"/>
@@ -2455,14 +2758,14 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D5" s="6"/>
@@ -2477,14 +2780,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="6"/>
@@ -2499,14 +2802,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D7" s="6"/>
@@ -2521,14 +2824,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D8" s="6"/>
@@ -2543,14 +2846,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="6"/>
@@ -2565,14 +2868,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D10" s="6"/>
@@ -2587,14 +2890,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D11" s="6"/>
@@ -2609,14 +2912,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D12" s="6"/>
@@ -2631,14 +2934,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D13" s="6"/>
@@ -2653,14 +2956,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D14" s="6"/>
@@ -2675,14 +2978,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="6"/>
@@ -2697,14 +3000,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D16" s="6"/>
@@ -2719,14 +3022,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D17" s="6"/>
@@ -2741,14 +3044,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D18" s="6"/>
@@ -2763,18 +3066,20 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="13" t="s">
+        <v>118</v>
+      </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
@@ -2783,23 +3088,47 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2810,11 +3139,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2833,39 +3179,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="29"/>
-      <c r="E1" s="27"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
@@ -2874,9 +3220,9 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2894,14 +3240,14 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -2920,14 +3266,14 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2002</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -2948,14 +3294,14 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2002</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -2976,14 +3322,14 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2003</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -3002,14 +3348,14 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2004</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -3027,14 +3373,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2005</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -3052,14 +3398,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2006</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -3077,14 +3423,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2007</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -3102,14 +3448,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2008</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -3127,14 +3473,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2009</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -3152,14 +3498,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2010</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -3177,14 +3523,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2011</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -3202,14 +3548,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2012</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -3227,14 +3573,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2013</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -3252,14 +3598,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2014</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -3277,14 +3623,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2015</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -3302,14 +3648,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2016</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -3327,14 +3673,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2017</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -3352,21 +3698,23 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>2018</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="13"/>
+      <c r="F21" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
@@ -3375,26 +3723,53 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>2019</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>120</v>
+      </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" ref="H23" si="3">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3405,11 +3780,28 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3 G6:G22">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G22 G3">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3421,12 +3813,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="G5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3438,12 +3830,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3462,37 +3854,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
@@ -3501,9 +3893,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
@@ -3518,14 +3910,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -3543,14 +3935,14 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3568,14 +3960,14 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -3592,14 +3984,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -3616,14 +4008,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -3640,14 +4032,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -3664,14 +4056,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -3688,14 +4080,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -3712,14 +4104,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -3736,14 +4128,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -3760,14 +4152,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -3784,14 +4176,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -3808,14 +4200,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -3832,14 +4224,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -3856,14 +4248,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -3880,14 +4272,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -3904,20 +4296,22 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
@@ -3926,25 +4320,51 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3955,11 +4375,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3978,38 +4415,38 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
@@ -4018,9 +4455,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
@@ -4035,14 +4472,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -4060,14 +4497,14 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -4085,14 +4522,14 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -4109,14 +4546,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -4133,14 +4570,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -4157,14 +4594,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -4181,14 +4618,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -4205,14 +4642,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -4229,14 +4666,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -4253,14 +4690,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -4277,14 +4714,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -4301,14 +4738,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -4325,14 +4762,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -4349,14 +4786,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -4373,14 +4810,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -4397,14 +4834,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -4421,20 +4858,22 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
@@ -4443,25 +4882,51 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>123</v>
+      </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -4472,11 +4937,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4495,39 +4977,39 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B21"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="36.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="4" width="36.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="29"/>
-      <c r="E1" s="27"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
@@ -4536,9 +5018,9 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
@@ -4556,14 +5038,14 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -4582,14 +5064,14 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2002</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -4610,14 +5092,14 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2003</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -4637,14 +5119,14 @@
       <c r="I5" s="14"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2004</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -4662,14 +5144,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2005</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -4687,14 +5169,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2006</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -4712,14 +5194,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2007</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -4737,14 +5219,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2008</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -4762,14 +5244,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2009</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -4787,14 +5269,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2010</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -4812,14 +5294,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2011</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -4837,14 +5319,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2012</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -4862,14 +5344,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2013</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -4887,14 +5369,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2014</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -4912,14 +5394,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2015</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -4937,14 +5419,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2016</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -4962,14 +5444,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2017</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -4987,21 +5469,23 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2018</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>124</v>
+      </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
@@ -5010,26 +5494,53 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
+      <c r="F21" s="13" t="s">
+        <v>124</v>
+      </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f t="shared" ref="H22" si="2">IF(OR(AND(G22&gt;1,G22&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -5040,11 +5551,28 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3 G5:G21">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G21 G3">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5056,12 +5584,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="G22">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="G22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5080,38 +5608,38 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
@@ -5120,9 +5648,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
@@ -5137,14 +5665,14 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -5162,14 +5690,14 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -5188,14 +5716,14 @@
       <c r="H4" s="14"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -5212,14 +5740,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -5236,14 +5764,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -5260,14 +5788,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -5284,14 +5812,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -5308,14 +5836,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -5332,14 +5860,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -5356,14 +5884,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -5380,14 +5908,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -5404,14 +5932,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -5428,14 +5956,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -5452,14 +5980,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -5476,14 +6004,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -5500,14 +6028,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -5524,20 +6052,22 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="13" t="s">
+        <v>125</v>
+      </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
@@ -5546,25 +6076,51 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -5575,11 +6131,28 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5598,7 +6171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5608,14 +6181,14 @@
       <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
@@ -5626,7 +6199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -5637,7 +6210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -5648,7 +6221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -5659,7 +6232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -5670,7 +6243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -5681,7 +6254,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -5694,12 +6267,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Italy/#EURO#Italy#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Italy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741C0753-7838-4F9E-B6BC-F6ED98D8F592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05797461-3BA5-44B6-861F-8699BF6D4CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -369,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="139">
   <si>
     <t>Year</t>
   </si>
@@ -750,13 +759,52 @@
   </si>
   <si>
     <t>12.000.000</t>
+  </si>
+  <si>
+    <t>МД</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>5c</t>
+  </si>
+  <si>
+    <t>10c</t>
+  </si>
+  <si>
+    <t>20c</t>
+  </si>
+  <si>
+    <t>50c</t>
+  </si>
+  <si>
+    <t>17.500</t>
+  </si>
+  <si>
+    <t>35.000.000</t>
+  </si>
+  <si>
+    <t>25.000.000</t>
+  </si>
+  <si>
+    <t>20.500</t>
+  </si>
+  <si>
+    <t>22.000.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -812,6 +860,10 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -960,7 +1012,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1024,6 +1076,9 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1039,16 +1094,94 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1162,94 +1295,6 @@
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1281,9 +1326,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="14" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="24" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1552,37 +1597,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="A19:G21"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
@@ -1591,9 +1636,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1608,7 +1653,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -1631,7 +1676,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -1654,7 +1699,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -1676,7 +1721,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -1698,7 +1743,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -1720,7 +1765,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -1742,7 +1787,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -1764,7 +1809,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -1786,7 +1831,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -1808,7 +1853,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -1830,7 +1875,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -1852,7 +1897,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -1874,7 +1919,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -1896,7 +1941,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -1918,7 +1963,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -1940,7 +1985,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -1962,7 +2007,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -1973,7 +2018,7 @@
         <v>104</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="25" t="s">
         <v>116</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1984,7 +2029,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -1995,7 +2040,7 @@
         <v>104</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="25" t="s">
         <v>115</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -2006,7 +2051,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
@@ -2017,7 +2062,7 @@
         <v>104</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="25" t="s">
         <v>117</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -2025,6 +2070,72 @@
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G24" si="2">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2034,8 +2145,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2052,7 +2164,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -2067,7 +2179,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2081,8 +2193,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21:F24">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2104,37 +2216,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="O27" sqref="O24:Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
@@ -2143,9 +2255,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2160,7 +2272,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -2183,7 +2295,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -2206,7 +2318,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -2228,7 +2340,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -2250,7 +2362,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -2272,7 +2384,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -2294,7 +2406,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -2316,7 +2428,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -2338,7 +2450,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -2360,7 +2472,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -2382,7 +2494,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -2404,7 +2516,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -2426,7 +2538,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -2448,7 +2560,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -2470,7 +2582,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -2492,7 +2604,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -2514,7 +2626,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -2525,7 +2637,7 @@
         <v>104</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="25" t="s">
         <v>116</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -2536,7 +2648,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -2547,7 +2659,7 @@
         <v>104</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="25" t="s">
         <v>115</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -2558,7 +2670,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
@@ -2569,7 +2681,7 @@
         <v>104</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="25" t="s">
         <v>117</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -2577,6 +2689,72 @@
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G24" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2586,8 +2764,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2604,7 +2783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -2619,7 +2798,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2633,8 +2812,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21:F24">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2656,37 +2835,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="M30" sqref="M27:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
@@ -2695,9 +2874,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2712,7 +2891,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -2735,7 +2914,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -2758,7 +2937,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -2780,7 +2959,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -2802,7 +2981,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -2824,7 +3003,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -2846,7 +3025,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -2868,7 +3047,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -2890,7 +3069,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -2912,7 +3091,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -2934,7 +3113,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -2956,7 +3135,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -2978,7 +3157,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -3000,7 +3179,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -3022,7 +3201,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -3044,7 +3223,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -3066,7 +3245,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -3088,7 +3267,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -3110,7 +3289,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
@@ -3129,6 +3308,72 @@
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G24" si="2">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3138,12 +3383,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F20 F22 F24">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F3:F20 F22 F24">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3155,12 +3401,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F23">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3180,38 +3426,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29:O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
@@ -3220,9 +3466,9 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
@@ -3240,7 +3486,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -3266,7 +3512,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2002</v>
       </c>
@@ -3294,7 +3540,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2002</v>
       </c>
@@ -3322,7 +3568,7 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2003</v>
       </c>
@@ -3348,7 +3594,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2004</v>
       </c>
@@ -3373,7 +3619,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2005</v>
       </c>
@@ -3398,7 +3644,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2006</v>
       </c>
@@ -3423,7 +3669,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2007</v>
       </c>
@@ -3448,7 +3694,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2008</v>
       </c>
@@ -3473,7 +3719,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2009</v>
       </c>
@@ -3498,7 +3744,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2010</v>
       </c>
@@ -3523,7 +3769,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2011</v>
       </c>
@@ -3548,7 +3794,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2012</v>
       </c>
@@ -3573,7 +3819,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2013</v>
       </c>
@@ -3598,7 +3844,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2014</v>
       </c>
@@ -3623,7 +3869,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2015</v>
       </c>
@@ -3648,7 +3894,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2016</v>
       </c>
@@ -3673,7 +3919,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2017</v>
       </c>
@@ -3698,7 +3944,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2018</v>
       </c>
@@ -3723,7 +3969,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>2019</v>
       </c>
@@ -3748,7 +3994,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>2020</v>
       </c>
@@ -3770,6 +4016,81 @@
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" ref="H23" si="3">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" ref="H24:H26" si="4">IF(OR(AND(G24&gt;1,G24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3779,12 +4100,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3 G6:G22">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="G3 G6:G22 G24 G26">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G22 G3">
+  <conditionalFormatting sqref="G6:G22 G3 G24 G26">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3797,7 +4119,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3814,7 +4136,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3830,12 +4152,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G23 G25">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G23 G25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3855,36 +4177,36 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="K26" sqref="K26:P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
@@ -3893,9 +4215,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
@@ -3910,7 +4232,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -3935,7 +4257,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -3960,7 +4282,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -3984,7 +4306,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -4008,7 +4330,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -4032,7 +4354,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -4056,7 +4378,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -4080,7 +4402,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -4104,7 +4426,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -4128,7 +4450,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -4152,7 +4474,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -4176,7 +4498,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -4200,7 +4522,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -4224,7 +4546,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -4248,7 +4570,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -4272,7 +4594,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -4296,7 +4618,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -4320,7 +4642,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -4344,7 +4666,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
@@ -4364,8 +4686,157 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="str">
-        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <f t="shared" ref="G21:G22" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" ref="G23:G24" si="2">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L26" t="s">
+        <v>127</v>
+      </c>
+      <c r="M26" t="s">
+        <v>128</v>
+      </c>
+      <c r="N26" t="s">
+        <v>129</v>
+      </c>
+      <c r="O26" t="s">
+        <v>130</v>
+      </c>
+      <c r="P26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K27">
+        <v>2021</v>
+      </c>
+      <c r="L27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" t="s">
+        <v>134</v>
+      </c>
+      <c r="N27" t="s">
+        <v>134</v>
+      </c>
+      <c r="O27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K28">
+        <v>2022</v>
+      </c>
+      <c r="L28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" t="s">
+        <v>137</v>
+      </c>
+      <c r="N28" t="s">
+        <v>137</v>
+      </c>
+      <c r="O28" t="s">
+        <v>119</v>
+      </c>
+      <c r="P28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K29">
+        <v>2023</v>
+      </c>
+      <c r="L29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" t="s">
+        <v>116</v>
+      </c>
+      <c r="N29" t="s">
+        <v>116</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4374,12 +4845,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F20 F22 F24">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F3:F20 F22 F24">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4391,12 +4863,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F23">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4416,37 +4888,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22:S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
@@ -4455,9 +4927,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
@@ -4472,7 +4944,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -4497,7 +4969,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -4522,7 +4994,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -4546,7 +5018,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -4570,7 +5042,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -4594,7 +5066,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -4618,7 +5090,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -4642,7 +5114,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -4666,7 +5138,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -4690,7 +5162,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -4714,7 +5186,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -4738,7 +5210,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -4762,7 +5234,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -4786,7 +5258,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -4810,7 +5282,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -4834,7 +5306,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -4858,7 +5330,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -4882,7 +5354,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -4906,7 +5378,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
@@ -4926,8 +5398,163 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="str">
-        <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <f t="shared" ref="G21:G22" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M22" t="s">
+        <v>127</v>
+      </c>
+      <c r="N22" t="s">
+        <v>128</v>
+      </c>
+      <c r="O22" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>131</v>
+      </c>
+      <c r="R22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" ref="G23:G24" si="2">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="L23">
+        <v>2021</v>
+      </c>
+      <c r="M23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" t="s">
+        <v>134</v>
+      </c>
+      <c r="O23" t="s">
+        <v>134</v>
+      </c>
+      <c r="P23" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>119</v>
+      </c>
+      <c r="R23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L24">
+        <v>2022</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" t="s">
+        <v>137</v>
+      </c>
+      <c r="O24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P24" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>65</v>
+      </c>
+      <c r="R24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L25">
+        <v>2023</v>
+      </c>
+      <c r="M25" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" t="s">
+        <v>116</v>
+      </c>
+      <c r="O25" t="s">
+        <v>116</v>
+      </c>
+      <c r="P25" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>119</v>
+      </c>
+      <c r="R25" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4936,12 +5563,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F20 F22 F24">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F3:F20 F22 F24">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4953,12 +5581,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F23">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4978,38 +5606,38 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="L27" sqref="L24:S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="4" width="36.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="36.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
@@ -5018,9 +5646,9 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
@@ -5038,7 +5666,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -5064,7 +5692,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2002</v>
       </c>
@@ -5092,7 +5720,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2003</v>
       </c>
@@ -5119,7 +5747,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2004</v>
       </c>
@@ -5144,7 +5772,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2005</v>
       </c>
@@ -5169,7 +5797,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2006</v>
       </c>
@@ -5194,7 +5822,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2007</v>
       </c>
@@ -5219,7 +5847,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2008</v>
       </c>
@@ -5244,7 +5872,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2009</v>
       </c>
@@ -5269,7 +5897,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2010</v>
       </c>
@@ -5294,7 +5922,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2011</v>
       </c>
@@ -5319,7 +5947,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2012</v>
       </c>
@@ -5344,7 +5972,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2013</v>
       </c>
@@ -5369,7 +5997,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2014</v>
       </c>
@@ -5394,7 +6022,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2015</v>
       </c>
@@ -5419,7 +6047,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2016</v>
       </c>
@@ -5444,7 +6072,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2017</v>
       </c>
@@ -5469,7 +6097,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2018</v>
       </c>
@@ -5494,7 +6122,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
@@ -5519,7 +6147,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>2020</v>
       </c>
@@ -5541,6 +6169,82 @@
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" ref="H22" si="2">IF(OR(AND(G22&gt;1,G22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" ref="H23:H25" si="3">IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T24" s="31"/>
+    </row>
+    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5550,12 +6254,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3 G5:G21">
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="G3 G5:G21 G23 G25">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G21 G3">
+  <conditionalFormatting sqref="G5:G21 G3 G23 G25">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5568,7 +6273,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5584,12 +6289,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G22 G24">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G22 G24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5609,37 +6314,37 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="I32" sqref="I29:Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
@@ -5648,9 +6353,9 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
@@ -5665,7 +6370,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2002</v>
       </c>
@@ -5690,7 +6395,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2003</v>
       </c>
@@ -5716,7 +6421,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -5740,7 +6445,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>2005</v>
       </c>
@@ -5764,7 +6469,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2006</v>
       </c>
@@ -5788,7 +6493,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
@@ -5812,7 +6517,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>2008</v>
       </c>
@@ -5836,7 +6541,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2009</v>
       </c>
@@ -5860,7 +6565,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>2010</v>
       </c>
@@ -5884,7 +6589,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>2011</v>
       </c>
@@ -5908,7 +6613,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2012</v>
       </c>
@@ -5932,7 +6637,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>2013</v>
       </c>
@@ -5956,7 +6661,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2014</v>
       </c>
@@ -5980,7 +6685,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2015</v>
       </c>
@@ -6004,7 +6709,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
@@ -6028,7 +6733,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
@@ -6052,7 +6757,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -6076,7 +6781,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
@@ -6100,7 +6805,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
@@ -6122,6 +6827,192 @@
       <c r="G21" s="3" t="str">
         <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G24" si="2">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J29" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29" t="s">
+        <v>128</v>
+      </c>
+      <c r="L29" t="s">
+        <v>129</v>
+      </c>
+      <c r="M29" t="s">
+        <v>130</v>
+      </c>
+      <c r="N29" t="s">
+        <v>131</v>
+      </c>
+      <c r="O29" t="s">
+        <v>132</v>
+      </c>
+      <c r="P29" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q29" s="31">
+        <v>1</v>
+      </c>
+      <c r="R29" s="31"/>
+    </row>
+    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I30">
+        <v>2021</v>
+      </c>
+      <c r="J30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" t="s">
+        <v>134</v>
+      </c>
+      <c r="L30" t="s">
+        <v>134</v>
+      </c>
+      <c r="M30" t="s">
+        <v>79</v>
+      </c>
+      <c r="N30" t="s">
+        <v>119</v>
+      </c>
+      <c r="O30" t="s">
+        <v>135</v>
+      </c>
+      <c r="P30" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I31">
+        <v>2022</v>
+      </c>
+      <c r="J31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" t="s">
+        <v>137</v>
+      </c>
+      <c r="L31" t="s">
+        <v>137</v>
+      </c>
+      <c r="M31" t="s">
+        <v>119</v>
+      </c>
+      <c r="N31" t="s">
+        <v>65</v>
+      </c>
+      <c r="O31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I32">
+        <v>2023</v>
+      </c>
+      <c r="J32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" t="s">
+        <v>116</v>
+      </c>
+      <c r="L32" t="s">
+        <v>116</v>
+      </c>
+      <c r="M32" t="s">
+        <v>60</v>
+      </c>
+      <c r="N32" t="s">
+        <v>119</v>
+      </c>
+      <c r="O32" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6130,12 +7021,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F20 F22 F24">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
+  <conditionalFormatting sqref="F3:F20 F22 F24">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6147,12 +7039,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6181,14 +7073,14 @@
       <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
@@ -6199,7 +7091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -6210,7 +7102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -6221,7 +7113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -6232,7 +7124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -6243,7 +7135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -6254,7 +7146,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
         <v>6</v>
       </c>

--- a/Collections/EURO/Italy/#EURO#Italy#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05797461-3BA5-44B6-861F-8699BF6D4CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567E11C6-A939-41FF-A8D8-34962F0B135B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4220" yWindow="2960" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -378,14 +378,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="132">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -761,27 +758,6 @@
     <t>12.000.000</t>
   </si>
   <si>
-    <t>МД</t>
-  </si>
-  <si>
-    <t>1c</t>
-  </si>
-  <si>
-    <t>2c</t>
-  </si>
-  <si>
-    <t>5c</t>
-  </si>
-  <si>
-    <t>10c</t>
-  </si>
-  <si>
-    <t>20c</t>
-  </si>
-  <si>
-    <t>50c</t>
-  </si>
-  <si>
     <t>17.500</t>
   </si>
   <si>
@@ -795,6 +771,9 @@
   </si>
   <si>
     <t>22.000.000</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1079,6 +1058,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,7 +1074,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1102,6 +1081,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="26">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1286,15 +1274,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1326,9 +1305,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="24" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1599,11 +1578,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1618,38 +1597,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1658,14 +1637,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1681,14 +1660,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1704,14 +1683,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1726,14 +1705,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1748,14 +1727,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1770,14 +1749,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1792,14 +1771,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1814,14 +1793,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1836,14 +1815,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1858,14 +1837,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1880,14 +1859,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1902,14 +1881,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1924,14 +1903,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1946,14 +1925,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1968,14 +1947,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1990,14 +1969,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2012,17 +1991,17 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2034,17 +2013,17 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2056,17 +2035,17 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
@@ -2078,17 +2057,17 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="25" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ref="G22:G24" si="2">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
@@ -2100,17 +2079,17 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="25" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2122,17 +2101,17 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2147,7 +2126,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2164,7 +2143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -2179,7 +2158,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2194,7 +2173,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F24">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2222,7 +2201,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O27" sqref="O24:Q27"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2237,38 +2216,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2277,14 +2256,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2300,14 +2279,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2323,14 +2302,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2345,14 +2324,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -2367,14 +2346,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2389,14 +2368,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2411,14 +2390,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2433,14 +2412,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2455,14 +2434,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2477,14 +2456,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2499,14 +2478,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2521,14 +2500,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2543,14 +2522,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2565,14 +2544,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2587,14 +2566,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2609,14 +2588,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2631,17 +2610,17 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2653,17 +2632,17 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2675,17 +2654,17 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2697,17 +2676,17 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="25" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ref="G22:G24" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
@@ -2719,17 +2698,17 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="25" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2741,17 +2720,17 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2766,7 +2745,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2783,7 +2762,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -2798,7 +2777,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2813,7 +2792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F24">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2841,7 +2820,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M30" sqref="M27:P30"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2856,38 +2835,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2896,14 +2875,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2919,14 +2898,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2942,14 +2921,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2964,14 +2943,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2986,14 +2965,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3008,14 +2987,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3030,14 +3009,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3052,14 +3031,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3074,14 +3053,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3096,14 +3075,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3118,14 +3097,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3140,14 +3119,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3162,14 +3141,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3184,14 +3163,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3206,14 +3185,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3228,14 +3207,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -3250,14 +3229,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3272,14 +3251,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3294,14 +3273,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -3316,14 +3295,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3338,14 +3317,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -3360,14 +3339,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -3385,7 +3364,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3402,11 +3381,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3432,7 +3411,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29:O32"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3447,42 +3426,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -3491,17 +3470,17 @@
         <v>2002</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -3517,19 +3496,19 @@
         <v>2002</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -3545,19 +3524,19 @@
         <v>2002</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -3573,17 +3552,17 @@
         <v>2003</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -3599,17 +3578,17 @@
         <v>2004</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -3624,17 +3603,17 @@
         <v>2005</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -3649,17 +3628,17 @@
         <v>2006</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -3674,17 +3653,17 @@
         <v>2007</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -3699,17 +3678,17 @@
         <v>2008</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -3724,17 +3703,17 @@
         <v>2009</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -3749,17 +3728,17 @@
         <v>2010</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -3774,17 +3753,17 @@
         <v>2011</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -3799,17 +3778,17 @@
         <v>2012</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -3824,17 +3803,17 @@
         <v>2013</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -3849,17 +3828,17 @@
         <v>2014</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -3874,17 +3853,17 @@
         <v>2015</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -3899,17 +3878,17 @@
         <v>2016</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -3924,17 +3903,17 @@
         <v>2017</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -3949,17 +3928,17 @@
         <v>2018</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -3974,17 +3953,17 @@
         <v>2019</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -3999,17 +3978,17 @@
         <v>2020</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -4024,17 +4003,17 @@
         <v>2021</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -4049,17 +4028,17 @@
         <v>2022</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -4074,17 +4053,17 @@
         <v>2023</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -4102,7 +4081,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3 G6:G22 G24 G26">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4119,7 +4098,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4136,7 +4115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4153,11 +4132,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25">
+  <conditionalFormatting sqref="G25 G23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4177,13 +4156,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26:P29"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4197,38 +4176,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4237,16 +4216,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -4262,16 +4241,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4287,16 +4266,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4311,16 +4290,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4335,16 +4314,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4359,16 +4338,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -4383,16 +4362,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4407,16 +4386,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -4431,16 +4410,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4455,16 +4434,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -4479,16 +4458,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -4503,16 +4482,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4527,16 +4506,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4551,16 +4530,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4570,21 +4549,21 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4594,21 +4573,21 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4618,21 +4597,21 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4642,21 +4621,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -4666,21 +4645,21 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -4690,21 +4669,21 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -4714,21 +4693,21 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -4738,21 +4717,21 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -4760,83 +4739,6 @@
       <c r="G24" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L26" t="s">
-        <v>127</v>
-      </c>
-      <c r="M26" t="s">
-        <v>128</v>
-      </c>
-      <c r="N26" t="s">
-        <v>129</v>
-      </c>
-      <c r="O26" t="s">
-        <v>130</v>
-      </c>
-      <c r="P26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K27">
-        <v>2021</v>
-      </c>
-      <c r="L27" t="s">
-        <v>30</v>
-      </c>
-      <c r="M27" t="s">
-        <v>134</v>
-      </c>
-      <c r="N27" t="s">
-        <v>134</v>
-      </c>
-      <c r="O27" t="s">
-        <v>79</v>
-      </c>
-      <c r="P27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K28">
-        <v>2022</v>
-      </c>
-      <c r="L28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M28" t="s">
-        <v>137</v>
-      </c>
-      <c r="N28" t="s">
-        <v>137</v>
-      </c>
-      <c r="O28" t="s">
-        <v>119</v>
-      </c>
-      <c r="P28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K29">
-        <v>2023</v>
-      </c>
-      <c r="L29" t="s">
-        <v>30</v>
-      </c>
-      <c r="M29" t="s">
-        <v>116</v>
-      </c>
-      <c r="N29" t="s">
-        <v>116</v>
-      </c>
-      <c r="O29" t="s">
-        <v>60</v>
-      </c>
-      <c r="P29" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4847,7 +4749,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4864,11 +4766,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4888,13 +4790,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22:S25"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4909,38 +4811,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4949,16 +4851,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1">
         <v>4</v>
@@ -4974,16 +4876,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4999,16 +4901,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -5023,16 +4925,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -5047,16 +4949,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -5071,16 +4973,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -5095,16 +4997,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -5119,16 +5021,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -5143,16 +5045,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -5167,16 +5069,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -5191,16 +5093,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -5215,16 +5117,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -5239,16 +5141,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -5263,16 +5165,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -5282,21 +5184,21 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -5306,21 +5208,21 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -5330,21 +5232,21 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -5354,21 +5256,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -5378,21 +5280,21 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -5402,21 +5304,21 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -5425,40 +5327,22 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M22" t="s">
-        <v>127</v>
-      </c>
-      <c r="N22" t="s">
-        <v>128</v>
-      </c>
-      <c r="O22" t="s">
-        <v>129</v>
-      </c>
-      <c r="P22" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>131</v>
-      </c>
-      <c r="R22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -5467,43 +5351,22 @@
         <f t="shared" ref="G23:G24" si="2">IF(OR(AND(F23&gt;1,F23&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="L23">
-        <v>2021</v>
-      </c>
-      <c r="M23" t="s">
-        <v>30</v>
-      </c>
-      <c r="N23" t="s">
-        <v>134</v>
-      </c>
-      <c r="O23" t="s">
-        <v>134</v>
-      </c>
-      <c r="P23" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>119</v>
-      </c>
-      <c r="R23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -5511,50 +5374,6 @@
       <c r="G24" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
-      </c>
-      <c r="L24">
-        <v>2022</v>
-      </c>
-      <c r="M24" t="s">
-        <v>30</v>
-      </c>
-      <c r="N24" t="s">
-        <v>137</v>
-      </c>
-      <c r="O24" t="s">
-        <v>137</v>
-      </c>
-      <c r="P24" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>65</v>
-      </c>
-      <c r="R24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L25">
-        <v>2023</v>
-      </c>
-      <c r="M25" t="s">
-        <v>30</v>
-      </c>
-      <c r="N25" t="s">
-        <v>116</v>
-      </c>
-      <c r="O25" t="s">
-        <v>116</v>
-      </c>
-      <c r="P25" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>119</v>
-      </c>
-      <c r="R25" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -5565,7 +5384,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5582,11 +5401,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5612,7 +5431,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L27" sqref="L24:S27"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5627,42 +5446,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -5671,17 +5490,17 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
@@ -5697,19 +5516,19 @@
         <v>2002</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -5725,17 +5544,17 @@
         <v>2003</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -5752,17 +5571,17 @@
         <v>2004</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -5777,17 +5596,17 @@
         <v>2005</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -5802,17 +5621,17 @@
         <v>2006</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -5827,17 +5646,17 @@
         <v>2007</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -5852,17 +5671,17 @@
         <v>2008</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -5877,17 +5696,17 @@
         <v>2009</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -5902,17 +5721,17 @@
         <v>2010</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -5927,17 +5746,17 @@
         <v>2011</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -5952,17 +5771,17 @@
         <v>2012</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -5977,17 +5796,17 @@
         <v>2013</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -6002,17 +5821,17 @@
         <v>2014</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -6027,17 +5846,17 @@
         <v>2015</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -6052,17 +5871,17 @@
         <v>2016</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -6077,17 +5896,17 @@
         <v>2017</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -6102,17 +5921,17 @@
         <v>2018</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -6127,17 +5946,17 @@
         <v>2019</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -6152,17 +5971,17 @@
         <v>2020</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -6177,17 +5996,17 @@
         <v>2021</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -6202,17 +6021,17 @@
         <v>2022</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -6221,24 +6040,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T24" s="31"/>
+      <c r="T24" s="26"/>
     </row>
     <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>2023</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -6256,7 +6075,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3 G5:G21 G23 G25">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6273,7 +6092,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6290,11 +6109,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22 G24">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24">
+  <conditionalFormatting sqref="G24 G22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6314,13 +6133,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I32" sqref="I29:Q32"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6335,38 +6154,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -6375,16 +6194,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -6400,16 +6219,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -6426,16 +6245,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -6450,16 +6269,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -6474,16 +6293,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -6498,16 +6317,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -6522,16 +6341,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -6546,16 +6365,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -6570,16 +6389,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -6594,16 +6413,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -6618,16 +6437,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -6642,16 +6461,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -6666,16 +6485,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -6690,16 +6509,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -6714,16 +6533,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -6738,16 +6557,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -6762,16 +6581,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -6786,16 +6605,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -6810,16 +6629,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -6834,16 +6653,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -6858,16 +6677,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -6882,16 +6701,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -6902,118 +6721,8 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J29" t="s">
-        <v>127</v>
-      </c>
-      <c r="K29" t="s">
-        <v>128</v>
-      </c>
-      <c r="L29" t="s">
-        <v>129</v>
-      </c>
-      <c r="M29" t="s">
-        <v>130</v>
-      </c>
-      <c r="N29" t="s">
-        <v>131</v>
-      </c>
-      <c r="O29" t="s">
-        <v>132</v>
-      </c>
-      <c r="P29" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q29" s="31">
-        <v>1</v>
-      </c>
-      <c r="R29" s="31"/>
-    </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I30">
-        <v>2021</v>
-      </c>
-      <c r="J30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K30" t="s">
-        <v>134</v>
-      </c>
-      <c r="L30" t="s">
-        <v>134</v>
-      </c>
-      <c r="M30" t="s">
-        <v>79</v>
-      </c>
-      <c r="N30" t="s">
-        <v>119</v>
-      </c>
-      <c r="O30" t="s">
-        <v>135</v>
-      </c>
-      <c r="P30" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I31">
-        <v>2022</v>
-      </c>
-      <c r="J31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" t="s">
-        <v>137</v>
-      </c>
-      <c r="L31" t="s">
-        <v>137</v>
-      </c>
-      <c r="M31" t="s">
-        <v>119</v>
-      </c>
-      <c r="N31" t="s">
-        <v>65</v>
-      </c>
-      <c r="O31" t="s">
-        <v>68</v>
-      </c>
-      <c r="P31" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I32">
-        <v>2023</v>
-      </c>
-      <c r="J32" t="s">
-        <v>30</v>
-      </c>
-      <c r="K32" t="s">
-        <v>116</v>
-      </c>
-      <c r="L32" t="s">
-        <v>116</v>
-      </c>
-      <c r="M32" t="s">
-        <v>60</v>
-      </c>
-      <c r="N32" t="s">
-        <v>119</v>
-      </c>
-      <c r="O32" t="s">
-        <v>65</v>
-      </c>
-      <c r="P32" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>124</v>
-      </c>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7023,7 +6732,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7040,11 +6749,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7082,13 +6791,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7096,10 +6805,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7107,10 +6816,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7118,10 +6827,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7129,10 +6838,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7140,10 +6849,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7151,10 +6860,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Italy/#EURO#Italy#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567E11C6-A939-41FF-A8D8-34962F0B135B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EEA419-DE76-4506-A9DE-F9A40064722D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="2960" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9130" yWindow="1690" windowWidth="28800" windowHeight="16750" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="132">
   <si>
     <t>Year</t>
   </si>
@@ -1080,7 +1080,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1305,9 +1313,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2126,7 +2134,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2143,7 +2151,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -2158,7 +2166,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2173,7 +2181,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F24">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2745,7 +2753,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2762,7 +2770,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -2777,7 +2785,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2792,7 +2800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F24">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2820,7 +2828,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3364,7 +3372,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3381,11 +3389,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3411,7 +3419,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4081,7 +4089,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3 G6:G22 G24 G26">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4098,7 +4106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4115,7 +4123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4132,11 +4140,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25 G23">
+  <conditionalFormatting sqref="G23 G25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4162,7 +4170,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4749,7 +4757,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4766,11 +4774,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5384,7 +5392,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5401,11 +5409,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5427,11 +5435,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5530,8 +5538,8 @@
       <c r="F4" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
+      <c r="G4" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" ref="H4" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
@@ -6075,12 +6083,29 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3 G5:G21 G23 G25">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G21 G3 G23 G25">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22 G24">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22 G24">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -6092,28 +6117,9 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6135,7 +6141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -6732,7 +6738,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6749,11 +6755,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Italy/#EURO#Italy#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EEA419-DE76-4506-A9DE-F9A40064722D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD18FC9B-61DE-4DFB-839D-FD1375CA4DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9130" yWindow="1690" windowWidth="28800" windowHeight="16750" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1080,15 +1080,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1313,9 +1305,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2134,7 +2126,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2151,7 +2143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -2166,7 +2158,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2181,7 +2173,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F24">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2753,7 +2745,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F18">
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2770,7 +2762,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -2785,7 +2777,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -2800,7 +2792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F24">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2824,11 +2816,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2893,7 +2885,7 @@
         <v>56</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
@@ -3372,7 +3364,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3389,11 +3381,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4089,7 +4081,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3 G6:G22 G24 G26">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4106,7 +4098,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4123,7 +4115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4140,11 +4132,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25">
+  <conditionalFormatting sqref="G25 G23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4757,7 +4749,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4774,11 +4766,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5392,7 +5384,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5409,11 +5401,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5435,7 +5427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -6083,7 +6075,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3 G5:G21 G23 G25">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6104,7 +6096,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24">
+  <conditionalFormatting sqref="G24 G22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6117,7 +6109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6738,7 +6730,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F3:F20 F22 F24">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6755,11 +6747,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Italy/#EURO#Italy#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD18FC9B-61DE-4DFB-839D-FD1375CA4DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69325DF7-4573-4DF8-9A73-D4D4E4AE045C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2820,7 +2820,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3195,7 +3195,7 @@
         <v>59</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3385,7 +3385,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4136,7 +4136,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25 G23">
+  <conditionalFormatting sqref="G23 G25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4770,7 +4770,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5405,7 +5405,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6096,7 +6096,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G22">
+  <conditionalFormatting sqref="G22 G24">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6751,7 +6751,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Italy/#EURO#Italy#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69325DF7-4573-4DF8-9A73-D4D4E4AE045C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E77EA5E-BFD9-4371-83E7-B060ADC63B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="33150" windowHeight="17700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1582,7 +1582,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1647,7 +1647,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ref="G3:G20" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
@@ -1803,7 +1803,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2197,11 +2197,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2266,7 +2266,7 @@
         <v>45</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ref="G3:G21" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
@@ -2816,7 +2816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3385,7 +3385,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4136,7 +4136,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25">
+  <conditionalFormatting sqref="G25 G23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4770,7 +4770,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5405,7 +5405,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6096,7 +6096,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24">
+  <conditionalFormatting sqref="G24 G22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6751,7 +6751,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23">
+  <conditionalFormatting sqref="F23 F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Italy/#EURO#Italy#Regular#[2002-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Regular#[2002-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E77EA5E-BFD9-4371-83E7-B060ADC63B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C49ADF-12C9-42B5-AEC9-0F7736C42F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="33150" windowHeight="17700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -378,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="133">
   <si>
     <t>Year</t>
   </si>
@@ -389,12 +399,6 @@
     <t>Mintage</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -692,9 +696,6 @@
     <t>Obv: With mint symbol - "R"</t>
   </si>
   <si>
-    <t>Subtype_3</t>
-  </si>
-  <si>
     <t>Obv: Castel del Monte</t>
   </si>
   <si>
@@ -774,6 +775,18 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_3#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
   </si>
 </sst>
 </file>
@@ -843,6 +856,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -991,7 +1006,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1059,6 +1074,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1582,53 +1600,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>128</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1637,14 +1654,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -1660,14 +1677,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1683,14 +1700,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1705,14 +1722,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1727,14 +1744,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1749,14 +1766,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1771,14 +1788,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1793,14 +1810,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1815,14 +1832,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1837,14 +1854,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1859,14 +1876,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1881,14 +1898,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1903,14 +1920,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1925,14 +1942,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1947,14 +1964,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1969,14 +1986,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1991,17 +2008,17 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2013,17 +2030,17 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2035,17 +2052,17 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ref="G21" si="1">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
@@ -2057,17 +2074,17 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ref="G22:G24" si="2">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
@@ -2079,17 +2096,17 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2101,17 +2118,17 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2119,9 +2136,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2197,57 +2214,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>128</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2256,14 +2272,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -2279,14 +2295,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2302,14 +2318,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2324,14 +2340,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -2346,14 +2362,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2368,14 +2384,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2390,14 +2406,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2412,14 +2428,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2434,14 +2450,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2456,14 +2472,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2478,14 +2494,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2500,14 +2516,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2522,14 +2538,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2544,14 +2560,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2566,14 +2582,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2588,14 +2604,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2610,17 +2626,17 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2632,17 +2648,17 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2654,17 +2670,17 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2676,17 +2692,17 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ref="G22:G24" si="1">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
@@ -2698,17 +2714,17 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2720,17 +2736,17 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2738,9 +2754,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2820,53 +2836,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>128</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2875,14 +2890,14 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -2898,14 +2913,14 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -2921,14 +2936,14 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2943,14 +2958,14 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2965,14 +2980,14 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2987,14 +3002,14 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3009,14 +3024,14 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3031,14 +3046,14 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3053,14 +3068,14 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3075,14 +3090,14 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3097,14 +3112,14 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -3119,14 +3134,14 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3141,14 +3156,14 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3163,14 +3178,14 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3185,14 +3200,14 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -3207,14 +3222,14 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -3229,14 +3244,14 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3251,14 +3266,14 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3273,14 +3288,14 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -3295,14 +3310,14 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3317,14 +3332,14 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -3339,14 +3354,14 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -3357,9 +3372,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -3385,7 +3400,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3411,57 +3426,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>128</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -3470,17 +3484,17 @@
         <v>2002</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -3496,19 +3510,19 @@
         <v>2002</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -3524,19 +3538,19 @@
         <v>2002</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -3552,17 +3566,17 @@
         <v>2003</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -3578,17 +3592,17 @@
         <v>2004</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -3603,17 +3617,17 @@
         <v>2005</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -3628,17 +3642,17 @@
         <v>2006</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -3653,17 +3667,17 @@
         <v>2007</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -3678,17 +3692,17 @@
         <v>2008</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -3703,17 +3717,17 @@
         <v>2009</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -3728,17 +3742,17 @@
         <v>2010</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -3753,17 +3767,17 @@
         <v>2011</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -3778,17 +3792,17 @@
         <v>2012</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -3803,17 +3817,17 @@
         <v>2013</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -3828,17 +3842,17 @@
         <v>2014</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -3853,17 +3867,17 @@
         <v>2015</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -3878,17 +3892,17 @@
         <v>2016</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -3903,17 +3917,17 @@
         <v>2017</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -3928,17 +3942,17 @@
         <v>2018</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -3953,17 +3967,17 @@
         <v>2019</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -3978,17 +3992,17 @@
         <v>2020</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -4003,17 +4017,17 @@
         <v>2021</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -4028,17 +4042,17 @@
         <v>2022</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -4053,17 +4067,17 @@
         <v>2023</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -4074,9 +4088,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4136,7 +4150,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25 G23">
+  <conditionalFormatting sqref="G23 G25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4162,52 +4176,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>128</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4216,16 +4230,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -4241,16 +4255,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4266,16 +4280,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4290,16 +4304,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4314,16 +4328,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4338,16 +4352,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -4362,16 +4376,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4386,16 +4400,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -4410,16 +4424,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4434,16 +4448,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -4458,16 +4472,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -4482,16 +4496,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4506,16 +4520,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4530,16 +4544,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4554,16 +4568,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4578,16 +4592,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -4602,16 +4616,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -4626,16 +4640,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -4650,16 +4664,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -4674,16 +4688,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -4698,16 +4712,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -4722,16 +4736,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -4742,9 +4756,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4770,7 +4784,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4796,53 +4810,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>128</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -4851,16 +4864,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1">
         <v>4</v>
@@ -4876,16 +4889,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -4901,16 +4914,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4925,16 +4938,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -4949,16 +4962,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -4973,16 +4986,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -4997,16 +5010,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -5021,16 +5034,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -5045,16 +5058,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -5069,16 +5082,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -5093,16 +5106,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -5117,16 +5130,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -5141,16 +5154,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -5165,16 +5178,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -5189,16 +5202,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -5213,16 +5226,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -5237,16 +5250,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -5261,16 +5274,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -5285,16 +5298,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -5309,16 +5322,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -5333,16 +5346,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -5357,16 +5370,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -5377,9 +5390,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -5405,7 +5418,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5431,57 +5444,56 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="36.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>128</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -5490,17 +5502,17 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
@@ -5516,22 +5528,22 @@
         <v>2002</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" ref="H4" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
@@ -5544,17 +5556,17 @@
         <v>2003</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -5571,17 +5583,17 @@
         <v>2004</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -5596,17 +5608,17 @@
         <v>2005</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -5621,17 +5633,17 @@
         <v>2006</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -5646,17 +5658,17 @@
         <v>2007</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -5671,17 +5683,17 @@
         <v>2008</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -5696,17 +5708,17 @@
         <v>2009</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -5721,17 +5733,17 @@
         <v>2010</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -5746,17 +5758,17 @@
         <v>2011</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -5771,17 +5783,17 @@
         <v>2012</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -5796,17 +5808,17 @@
         <v>2013</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -5821,17 +5833,17 @@
         <v>2014</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -5846,17 +5858,17 @@
         <v>2015</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -5871,17 +5883,17 @@
         <v>2016</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -5896,17 +5908,17 @@
         <v>2017</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -5921,17 +5933,17 @@
         <v>2018</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -5946,17 +5958,17 @@
         <v>2019</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -5971,17 +5983,17 @@
         <v>2020</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -5996,17 +6008,17 @@
         <v>2021</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -6021,17 +6033,17 @@
         <v>2022</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -6047,17 +6059,17 @@
         <v>2023</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -6068,9 +6080,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -6096,7 +6108,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G22">
+  <conditionalFormatting sqref="G22 G24">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6133,57 +6145,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>128</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -6192,16 +6203,16 @@
         <v>2002</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -6217,16 +6228,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -6243,16 +6254,16 @@
         <v>2004</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -6267,16 +6278,16 @@
         <v>2005</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -6291,16 +6302,16 @@
         <v>2006</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -6315,16 +6326,16 @@
         <v>2007</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -6339,16 +6350,16 @@
         <v>2008</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -6363,16 +6374,16 @@
         <v>2009</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -6387,16 +6398,16 @@
         <v>2010</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -6411,16 +6422,16 @@
         <v>2011</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -6435,16 +6446,16 @@
         <v>2012</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -6459,16 +6470,16 @@
         <v>2013</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -6483,16 +6494,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -6507,16 +6518,16 @@
         <v>2015</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -6531,16 +6542,16 @@
         <v>2016</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -6555,16 +6566,16 @@
         <v>2017</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -6579,16 +6590,16 @@
         <v>2018</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -6603,16 +6614,16 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -6627,16 +6638,16 @@
         <v>2020</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -6651,16 +6662,16 @@
         <v>2021</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -6675,16 +6686,16 @@
         <v>2022</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -6699,16 +6710,16 @@
         <v>2023</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -6723,9 +6734,9 @@
       <c r="R29" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -6751,7 +6762,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21">
+  <conditionalFormatting sqref="F21 F23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6789,13 +6800,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6803,10 +6814,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6814,10 +6825,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6825,10 +6836,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6836,10 +6847,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6847,10 +6858,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6858,10 +6869,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
